--- a/chaoyi/sql.xlsx
+++ b/chaoyi/sql.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/PycharmProjects/zazaza/sql_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/PycharmProjects/zazaza/chaoyi/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HEAD" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="H17" authorId="0">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="154">
   <si>
     <t>DB_NAME</t>
   </si>
@@ -236,20 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>total_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物总件数</t>
-    <rPh sb="0" eb="1">
-      <t>huo'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'jian'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>total_price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -899,10 +885,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <rPh sb="0" eb="1">
       <t>shu'liang</t>
@@ -975,6 +957,29 @@
     <rPh sb="0" eb="1">
       <t>zhe'kou</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1272,8 +1277,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1331,8 +1390,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1420,8 +1494,20 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1441,6 +1527,11 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2708,10 +2799,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2721,10 +2812,10 @@
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2734,10 +2825,10 @@
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2747,10 +2838,10 @@
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2760,10 +2851,10 @@
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2773,10 +2864,10 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2786,10 +2877,10 @@
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2799,10 +2890,10 @@
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2812,10 +2903,10 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2825,10 +2916,10 @@
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2944,7 +3035,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2957,10 +3048,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3020,7 +3111,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>29</v>
@@ -3037,7 +3128,7 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="10"/>
@@ -3048,7 +3139,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>29</v>
@@ -3070,7 +3161,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>21</v>
@@ -3083,7 +3174,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -3094,7 +3185,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -3107,7 +3198,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3118,7 +3209,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>33</v>
@@ -3131,7 +3222,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3142,7 +3233,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>33</v>
@@ -3155,7 +3246,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3166,7 +3257,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>28</v>
@@ -3179,7 +3270,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3190,7 +3281,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>28</v>
@@ -3203,7 +3294,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3214,20 +3305,20 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3238,7 +3329,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3254,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3277,10 +3368,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3340,7 +3431,7 @@
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -3349,11 +3440,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -3364,7 +3455,7 @@
     </row>
     <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -3377,7 +3468,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="10"/>
@@ -3388,7 +3479,7 @@
     </row>
     <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -3399,7 +3490,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -3410,7 +3501,7 @@
     </row>
     <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -3423,7 +3514,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3434,7 +3525,7 @@
     </row>
     <row r="7" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>29</v>
@@ -3445,7 +3536,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3456,7 +3547,7 @@
     </row>
     <row r="8" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>29</v>
@@ -3467,7 +3558,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3478,7 +3569,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11"/>
     </row>
@@ -3496,10 +3587,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3521,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -3584,7 +3675,7 @@
     </row>
     <row r="3" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
@@ -3729,15 +3820,17 @@
         <v>40</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3748,31 +3841,31 @@
     </row>
     <row r="10" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>28</v>
@@ -3785,7 +3878,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3794,22 +3887,22 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="10"/>
       <c r="H12" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3820,20 +3913,20 @@
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="10"/>
       <c r="H13" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3844,20 +3937,20 @@
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="10"/>
       <c r="H14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3868,20 +3961,18 @@
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3891,19 +3982,21 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="14" t="s">
-        <v>68</v>
+      <c r="H16" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3912,42 +4005,18 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N22"/>
+      <c r="N21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A20" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -3960,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD19"/>
+    <sheetView topLeftCell="A5" zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3985,10 +4054,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4048,7 +4117,7 @@
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -4059,7 +4128,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
@@ -4190,18 +4259,20 @@
     </row>
     <row r="9" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4212,20 +4283,20 @@
     </row>
     <row r="10" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4236,44 +4307,44 @@
     </row>
     <row r="11" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="14" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4282,22 +4353,22 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="10"/>
       <c r="H13" s="14" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -4306,22 +4377,22 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="10">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4330,22 +4401,22 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -4356,20 +4427,20 @@
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -4380,20 +4451,20 @@
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -4404,20 +4475,18 @@
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="10"/>
       <c r="H18" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -4428,18 +4497,20 @@
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="10"/>
       <c r="H19" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -4448,39 +4519,15 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>77</v>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A23" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A22" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4489,10 +4536,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4514,10 +4561,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4577,7 +4624,7 @@
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -4586,11 +4633,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -4601,7 +4648,7 @@
     </row>
     <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -4614,7 +4661,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="10"/>
@@ -4625,7 +4672,7 @@
     </row>
     <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -4636,7 +4683,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4647,38 +4694,62 @@
     </row>
     <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="C6" s="10">
-        <v>150</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="14" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9"/>
+    <row r="7" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10">
+        <v>150</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A10" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4700,10 +4771,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -4763,7 +4834,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -4772,11 +4843,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -4787,7 +4858,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>21</v>
@@ -4800,7 +4871,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -4811,10 +4882,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="22"/>
@@ -4822,7 +4893,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -4833,7 +4904,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>21</v>
@@ -4846,7 +4917,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -4889,7 +4960,7 @@
     </row>
     <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4920,7 +4991,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4933,10 +5004,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -4996,7 +5067,7 @@
     </row>
     <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -5005,11 +5076,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -5020,7 +5091,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>29</v>
@@ -5031,7 +5102,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -5042,7 +5113,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>33</v>
@@ -5055,7 +5126,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
@@ -5066,7 +5137,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>33</v>
@@ -5079,7 +5150,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -5090,20 +5161,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -5114,7 +5185,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -5127,7 +5198,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -5170,7 +5241,7 @@
     </row>
     <row r="11" spans="1:14" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -5214,10 +5285,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -5277,7 +5348,7 @@
     </row>
     <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -5286,11 +5357,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -5301,7 +5372,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>29</v>
@@ -5312,7 +5383,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -5323,7 +5394,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>33</v>
@@ -5336,7 +5407,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
@@ -5347,7 +5418,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>33</v>
@@ -5360,7 +5431,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -5371,20 +5442,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -5395,7 +5466,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -5408,7 +5479,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -5451,7 +5522,7 @@
     </row>
     <row r="11" spans="1:14" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -5478,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5494,10 +5565,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5556,58 +5627,59 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="32"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -5615,10 +5687,9 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -5628,108 +5699,154 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="23">
-        <v>150</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23">
+        <v>150</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>77</v>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A12" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A14" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5738,10 +5855,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5754,10 +5871,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5816,56 +5933,58 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="I4" s="14"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -5876,7 +5995,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -5886,98 +6005,144 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="23">
-        <v>150</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23">
+        <v>150</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
